--- a/source/docs/Forplay Objects.xlsx
+++ b/source/docs/Forplay Objects.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>Tag</t>
   </si>
@@ -130,6 +133,72 @@
   </si>
   <si>
     <t>object - from the contrusctor argument</t>
+  </si>
+  <si>
+    <t>a.k.a.</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>bg_name</t>
+  </si>
+  <si>
+    <t>en_name</t>
+  </si>
+  <si>
+    <t>main_img</t>
+  </si>
+  <si>
+    <t>smallint(5) unsigned</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t>TAGS</t>
+  </si>
+  <si>
+    <t>AKA</t>
+  </si>
+  <si>
+    <t>tag_id</t>
+  </si>
+  <si>
+    <t>aka_name</t>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>GAMES</t>
+  </si>
+  <si>
+    <t>Гранд Тефт Ауто 5</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto 5</t>
+  </si>
+  <si>
+    <t>gta5.jpg</t>
+  </si>
+  <si>
+    <t>gta-5</t>
+  </si>
+  <si>
+    <t>GTA V</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>ГТА 5</t>
   </si>
 </sst>
 </file>
@@ -200,20 +269,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -509,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,9 +620,14 @@
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,211 +646,307 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="H6">
+        <v>65535</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>65535</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
+      <c r="H16">
+        <v>65535</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -757,10 +955,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -769,7 +967,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -779,7 +977,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -789,7 +987,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -799,7 +997,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -808,8 +1006,8 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -818,8 +1016,8 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>24</v>
+      <c r="C24" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -828,10 +1026,10 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
@@ -839,10 +1037,10 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,10 +1048,10 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -862,59 +1060,70 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/source/docs/Forplay Objects.xlsx
+++ b/source/docs/Forplay Objects.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="10035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tags and Objects" sheetId="1" r:id="rId1"/>
     <sheet name="DB" sheetId="2" r:id="rId2"/>
     <sheet name="Relations" sheetId="3" r:id="rId3"/>
+    <sheet name="Log" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="127">
   <si>
     <t>Tag</t>
   </si>
@@ -364,13 +365,49 @@
   </si>
   <si>
     <t>end_date</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>insert,update</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>for_tags_log</t>
+  </si>
+  <si>
+    <t>for_tag</t>
+  </si>
+  <si>
+    <t>game, company, person, character, serie, dlc, movie, tv, album, event, band, book, board, article, caret. quote, adv, img</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>acknowledged</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>mediumint(9)</t>
+  </si>
+  <si>
+    <t>admin(0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +518,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -491,7 +533,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -501,50 +543,55 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
     <cellStyle name="40% - Accent6" xfId="8" builtinId="51"/>
     <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent3" xfId="5" builtinId="37"/>
     <cellStyle name="Accent4" xfId="6" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
     <cellStyle name="Accent6" xfId="7" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,6 +709,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -696,6 +744,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -871,14 +920,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
@@ -895,26 +944,26 @@
     <col min="14" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -924,50 +973,50 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="I2" s="11" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="7" t="s">
         <v>71</v>
       </c>
       <c r="J2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="I3" s="12" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="I3" s="8" t="s">
         <v>93</v>
       </c>
       <c r="J3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="I4" s="1" t="s">
         <v>69</v>
       </c>
@@ -975,337 +1024,345 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="I5" s="7" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="I5" s="5" t="s">
         <v>68</v>
       </c>
       <c r="J5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="I6" s="5" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="I6" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="I7" s="9"/>
       <c r="J7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="13" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="I9" s="11" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="I10" s="11" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="I10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="13" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="13" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="5" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="12" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="5" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" s="5" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="5" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="12"/>
-      <c r="C19" s="5" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="12"/>
-      <c r="C20" s="5" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21" s="12"/>
-      <c r="C21" s="5" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" s="12"/>
-      <c r="C22" s="5" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="12"/>
-      <c r="C23" s="5" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="7" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="5" t="s">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="5" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="5" t="s">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8" t="s">
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="8" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="B10:G10"/>
@@ -1313,14 +1370,6 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1328,14 +1377,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
@@ -1346,12 +1395,12 @@
     <col min="8" max="8" width="81.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1377,7 +1426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1403,7 +1452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1429,23 +1478,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -1456,7 +1505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -1467,16 +1516,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C12" t="s">
@@ -1486,7 +1535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1500,7 +1549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1514,16 +1563,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="13" t="s">
         <v>111</v>
       </c>
       <c r="C17" t="s">
@@ -1536,7 +1585,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -1553,7 +1602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -1570,16 +1619,16 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="18" customFormat="1">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C22" t="s">
@@ -1589,7 +1638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -1603,7 +1652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -1617,12 +1666,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1633,7 +1682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1644,7 +1693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1655,12 +1704,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1">
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1674,7 +1723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1688,7 +1737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1702,12 +1751,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="2" customFormat="1">
+    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1718,7 +1767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1729,7 +1778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1740,12 +1789,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="2" customFormat="1">
+    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1756,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1767,7 +1816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1792,26 +1841,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1819,12 +1868,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1832,12 +1881,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1845,7 +1894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1853,7 +1902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1861,12 +1910,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="6" customFormat="1">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1874,7 +1923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1882,7 +1931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1890,12 +1939,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="6" customFormat="1">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1912,4 +1961,89 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source/docs/Forplay Objects.xlsx
+++ b/source/docs/Forplay Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="10035" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tags and Objects" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
   <si>
     <t>Tag</t>
   </si>
@@ -401,6 +401,27 @@
   </si>
   <si>
     <t>admin(0)</t>
+  </si>
+  <si>
+    <t>for_rel_stickers</t>
+  </si>
+  <si>
+    <t>sticker_id</t>
+  </si>
+  <si>
+    <t>lib</t>
+  </si>
+  <si>
+    <t>game_id</t>
+  </si>
+  <si>
+    <t>movie_id</t>
+  </si>
+  <si>
+    <t>track_id</t>
+  </si>
+  <si>
+    <t>event_id</t>
   </si>
 </sst>
 </file>
@@ -924,7 +945,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,7 +1423,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -1485,7 +1506,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>109</v>
@@ -1523,7 +1544,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>110</v>
@@ -1570,7 +1591,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>111</v>
@@ -1626,7 +1647,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>113</v>
@@ -1673,7 +1694,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -1711,7 +1732,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -1723,7 +1744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1737,7 +1758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1751,14 +1772,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -1767,7 +1788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1778,7 +1799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1789,23 +1810,29 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
       </c>
       <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1815,8 +1842,14 @@
       <c r="C43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1824,6 +1857,12 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1842,10 +1881,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,6 +1989,19 @@
       </c>
       <c r="B18" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +2019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/source/docs/Forplay Objects.xlsx
+++ b/source/docs/Forplay Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Tags and Objects" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="133">
   <si>
     <t>Tag</t>
   </si>
@@ -205,12 +205,6 @@
     <t>cover</t>
   </si>
   <si>
-    <t>time (change to duration)</t>
-  </si>
-  <si>
-    <t>artists (change to multiple)</t>
-  </si>
-  <si>
     <t>authors (change to multiple)</t>
   </si>
   <si>
@@ -422,6 +416,9 @@
   </si>
   <si>
     <t>event_id</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -944,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,13 +982,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
         <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1005,10 +1002,10 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1022,10 +1019,10 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="I3" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1039,15 +1036,15 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="I4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1056,10 +1053,10 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="I5" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1073,15 +1070,15 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="I6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1091,12 +1088,12 @@
       <c r="G7" s="14"/>
       <c r="I7" s="9"/>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1107,7 +1104,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1115,15 +1112,15 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="I9" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1131,15 +1128,15 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="I10" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1149,7 +1146,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1159,7 +1156,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1171,7 +1168,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>58</v>
@@ -1188,7 +1185,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="10"/>
@@ -1276,7 +1273,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1327,7 +1324,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G28" s="12"/>
     </row>
@@ -1337,7 +1334,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G29" s="12"/>
     </row>
@@ -1376,6 +1373,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="B9:G9"/>
@@ -1384,13 +1388,6 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1401,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,13 +1484,13 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
@@ -1506,18 +1503,18 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -1528,29 +1525,29 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1558,7 +1555,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -1572,13 +1569,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -1586,29 +1583,29 @@
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -1617,15 +1614,15 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -1637,23 +1634,23 @@
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1661,7 +1658,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -1675,13 +1672,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -1774,12 +1771,12 @@
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -1812,18 +1809,18 @@
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -1884,7 +1881,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,7 +1956,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1980,7 +1977,7 @@
     </row>
     <row r="17" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1988,12 +1985,12 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2001,7 +1998,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2037,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2045,10 +2042,10 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -2057,39 +2054,39 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
         <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/source/docs/Forplay Objects.xlsx
+++ b/source/docs/Forplay Objects.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="10035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tags and Objects" sheetId="1" r:id="rId1"/>
     <sheet name="DB" sheetId="2" r:id="rId2"/>
     <sheet name="Relations" sheetId="3" r:id="rId3"/>
     <sheet name="Log" sheetId="4" r:id="rId4"/>
+    <sheet name="Article" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="185">
   <si>
     <t>Tag</t>
   </si>
@@ -419,6 +420,162 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>games,  movies, music, books, board</t>
+  </si>
+  <si>
+    <t>youtube,  vimeo, forplay</t>
+  </si>
+  <si>
+    <t>review, feature, news, video</t>
+  </si>
+  <si>
+    <t>mixcloud</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>video_url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>encode</t>
+  </si>
+  <si>
+    <t>audio_frame</t>
+  </si>
+  <si>
+    <t>audio_url</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>for_rel_authors</t>
+  </si>
+  <si>
+    <t>video_tech</t>
+  </si>
+  <si>
+    <t>audio_tech</t>
+  </si>
+  <si>
+    <t>cover_align</t>
+  </si>
+  <si>
+    <t>cover_valign</t>
+  </si>
+  <si>
+    <t>cover_theme</t>
+  </si>
+  <si>
+    <t>cover_subtheme</t>
+  </si>
+  <si>
+    <t>cover_img</t>
+  </si>
+  <si>
+    <t>wide_img</t>
+  </si>
+  <si>
+    <t>shot_img</t>
+  </si>
+  <si>
+    <t>caret_img</t>
+  </si>
+  <si>
+    <t>hype</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>ARTICLE</t>
+  </si>
+  <si>
+    <t>CARET</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>YES, caret</t>
+  </si>
+  <si>
+    <t>QUOTE</t>
+  </si>
+  <si>
+    <t>YES, quote</t>
+  </si>
+  <si>
+    <t>YES, text</t>
+  </si>
+  <si>
+    <t>preview</t>
+  </si>
+  <si>
+    <t>ADV</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>for_rel_tags</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>fro_rel_tags (is_prime)</t>
+  </si>
+  <si>
+    <t>YES, null</t>
   </si>
 </sst>
 </file>
@@ -941,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1373,13 +1530,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="B9:G9"/>
@@ -1388,6 +1538,13 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2095,4 +2252,435 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/source/docs/Forplay Objects.xlsx
+++ b/source/docs/Forplay Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="10035" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="10035" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tags and Objects" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Relations" sheetId="3" r:id="rId3"/>
     <sheet name="Log" sheetId="4" r:id="rId4"/>
     <sheet name="Article" sheetId="5" r:id="rId5"/>
+    <sheet name="Layout" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="216">
   <si>
     <t>Tag</t>
   </si>
@@ -575,7 +576,100 @@
     <t>fro_rel_tags (is_prime)</t>
   </si>
   <si>
-    <t>YES, null</t>
+    <t>center</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>imgs</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>left_valign</t>
+  </si>
+  <si>
+    <t>top, bottom</t>
+  </si>
+  <si>
+    <t>right_valign</t>
+  </si>
+  <si>
+    <t>layout_id</t>
+  </si>
+  <si>
+    <t>article_id</t>
+  </si>
+  <si>
+    <t>article_url; tag_id, quote_id, advert_id</t>
+  </si>
+  <si>
+    <t>left_object</t>
+  </si>
+  <si>
+    <t>right_object</t>
+  </si>
+  <si>
+    <t>[review, news, aside, etc.], [game, movie, book, etc.], quote, advert</t>
+  </si>
+  <si>
+    <t>for_rel_imgs</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>pointer</t>
+  </si>
+  <si>
+    <t>tracklist</t>
+  </si>
+  <si>
+    <t>valign</t>
+  </si>
+  <si>
+    <t>text, img, inside</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>img_id (player)</t>
+  </si>
+  <si>
+    <t>article_id (player)</t>
+  </si>
+  <si>
+    <t>t0,  [z0, z1, a1, a2, a3, b1, b2, f1, f3], [i1,  i2, i3, i4]</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>bottom, left, right, top</t>
+  </si>
+  <si>
+    <t>author_name</t>
+  </si>
+  <si>
+    <t>bottom, top, middle</t>
+  </si>
+  <si>
+    <t>left, right, center</t>
+  </si>
+  <si>
+    <t>tag_id (prime)</t>
+  </si>
+  <si>
+    <t>16-9; 16-10</t>
   </si>
 </sst>
 </file>
@@ -1530,6 +1624,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="B9:G9"/>
@@ -1538,13 +1639,6 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2256,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,6 +2529,9 @@
       <c r="E11" t="s">
         <v>171</v>
       </c>
+      <c r="F11" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2642,10 +2739,10 @@
         <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F30" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2673,14 +2770,234 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F32" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>